--- a/data/output/seat_status_classroom_image1.xlsx
+++ b/data/output/seat_status_classroom_image1.xlsx
@@ -477,22 +477,22 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>130.9651489257812</v>
+        <v>131.1939086914062</v>
       </c>
       <c r="B2" t="n">
-        <v>643.088134765625</v>
+        <v>643.1854858398438</v>
       </c>
       <c r="C2" t="n">
-        <v>222.8389282226562</v>
+        <v>222.9892883300781</v>
       </c>
       <c r="D2" t="n">
-        <v>738.4400024414062</v>
+        <v>738.6353149414062</v>
       </c>
       <c r="E2" t="n">
-        <v>176.9020385742188</v>
+        <v>177.0915985107422</v>
       </c>
       <c r="F2" t="n">
-        <v>690.7640380859375</v>
+        <v>690.910400390625</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -507,22 +507,22 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>607.1016845703125</v>
+        <v>606.7090454101562</v>
       </c>
       <c r="B3" t="n">
-        <v>723.0144653320312</v>
+        <v>722.9835205078125</v>
       </c>
       <c r="C3" t="n">
-        <v>707.115234375</v>
+        <v>707.009033203125</v>
       </c>
       <c r="D3" t="n">
-        <v>805.231689453125</v>
+        <v>805.8189086914062</v>
       </c>
       <c r="E3" t="n">
-        <v>657.1084594726562</v>
+        <v>656.8590087890625</v>
       </c>
       <c r="F3" t="n">
-        <v>764.123046875</v>
+        <v>764.4012451171875</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -537,22 +537,22 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>905.9854125976562</v>
+        <v>905.2837524414062</v>
       </c>
       <c r="B4" t="n">
-        <v>723.3621826171875</v>
+        <v>723.41552734375</v>
       </c>
       <c r="C4" t="n">
-        <v>1008.209533691406</v>
+        <v>1008.295227050781</v>
       </c>
       <c r="D4" t="n">
-        <v>811.8737182617188</v>
+        <v>811.6383056640625</v>
       </c>
       <c r="E4" t="n">
-        <v>957.0974731445312</v>
+        <v>956.7894897460938</v>
       </c>
       <c r="F4" t="n">
-        <v>767.617919921875</v>
+        <v>767.5269165039062</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -567,22 +567,22 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1261.964599609375</v>
+        <v>1261.876831054688</v>
       </c>
       <c r="B5" t="n">
-        <v>741.3048706054688</v>
+        <v>741.2279663085938</v>
       </c>
       <c r="C5" t="n">
-        <v>1372.003051757812</v>
+        <v>1372.039794921875</v>
       </c>
       <c r="D5" t="n">
-        <v>805.248046875</v>
+        <v>805.2828369140625</v>
       </c>
       <c r="E5" t="n">
-        <v>1316.98388671875</v>
+        <v>1316.958251953125</v>
       </c>
       <c r="F5" t="n">
-        <v>773.2764892578125</v>
+        <v>773.25537109375</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -597,22 +597,22 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>290.68896484375</v>
+        <v>290.7802429199219</v>
       </c>
       <c r="B6" t="n">
-        <v>742.6278686523438</v>
+        <v>742.7714233398438</v>
       </c>
       <c r="C6" t="n">
-        <v>377.7562255859375</v>
+        <v>377.9437255859375</v>
       </c>
       <c r="D6" t="n">
-        <v>868.363037109375</v>
+        <v>868.3506469726562</v>
       </c>
       <c r="E6" t="n">
-        <v>334.2225952148438</v>
+        <v>334.3619995117188</v>
       </c>
       <c r="F6" t="n">
-        <v>805.4954833984375</v>
+        <v>805.56103515625</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -627,22 +627,22 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1221.890625</v>
+        <v>1221.772705078125</v>
       </c>
       <c r="B7" t="n">
-        <v>786.4918212890625</v>
+        <v>786.370361328125</v>
       </c>
       <c r="C7" t="n">
-        <v>1367.068481445312</v>
+        <v>1366.89697265625</v>
       </c>
       <c r="D7" t="n">
-        <v>886.8246459960938</v>
+        <v>886.9266967773438</v>
       </c>
       <c r="E7" t="n">
-        <v>1294.4794921875</v>
+        <v>1294.334838867188</v>
       </c>
       <c r="F7" t="n">
-        <v>836.658203125</v>
+        <v>836.6485595703125</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -657,22 +657,22 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>694.1363525390625</v>
+        <v>694.4544677734375</v>
       </c>
       <c r="B8" t="n">
-        <v>774.5184936523438</v>
+        <v>774.3251953125</v>
       </c>
       <c r="C8" t="n">
-        <v>853.187255859375</v>
+        <v>853.19775390625</v>
       </c>
       <c r="D8" t="n">
-        <v>913.6083374023438</v>
+        <v>913.69970703125</v>
       </c>
       <c r="E8" t="n">
-        <v>773.6618041992188</v>
+        <v>773.8261108398438</v>
       </c>
       <c r="F8" t="n">
-        <v>844.0634155273438</v>
+        <v>844.012451171875</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -687,22 +687,22 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>530.0961303710938</v>
+        <v>529.7111206054688</v>
       </c>
       <c r="B9" t="n">
-        <v>823.0762329101562</v>
+        <v>822.842529296875</v>
       </c>
       <c r="C9" t="n">
-        <v>748.2428588867188</v>
+        <v>748.4374389648438</v>
       </c>
       <c r="D9" t="n">
-        <v>993.00390625</v>
+        <v>992.998779296875</v>
       </c>
       <c r="E9" t="n">
-        <v>639.1694946289062</v>
+        <v>639.0742797851562</v>
       </c>
       <c r="F9" t="n">
-        <v>908.0400390625</v>
+        <v>907.920654296875</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -717,22 +717,22 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1351.96484375</v>
+        <v>1351.741333007812</v>
       </c>
       <c r="B10" t="n">
-        <v>778.259033203125</v>
+        <v>777.5735473632812</v>
       </c>
       <c r="C10" t="n">
-        <v>1562.058837890625</v>
+        <v>1562.541137695312</v>
       </c>
       <c r="D10" t="n">
-        <v>1092.958740234375</v>
+        <v>1093.13525390625</v>
       </c>
       <c r="E10" t="n">
-        <v>1457.011840820312</v>
+        <v>1457.141235351562</v>
       </c>
       <c r="F10" t="n">
-        <v>935.60888671875</v>
+        <v>935.3543701171875</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -747,22 +747,22 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1126.682006835938</v>
+        <v>1126.8935546875</v>
       </c>
       <c r="B11" t="n">
-        <v>800.600830078125</v>
+        <v>799.4353637695312</v>
       </c>
       <c r="C11" t="n">
-        <v>1368.656494140625</v>
+        <v>1368.66357421875</v>
       </c>
       <c r="D11" t="n">
-        <v>1147.536865234375</v>
+        <v>1147.487670898438</v>
       </c>
       <c r="E11" t="n">
-        <v>1247.669189453125</v>
+        <v>1247.778564453125</v>
       </c>
       <c r="F11" t="n">
-        <v>974.06884765625</v>
+        <v>973.4615478515625</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -777,22 +777,22 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>731.6537475585938</v>
+        <v>731.8578491210938</v>
       </c>
       <c r="B12" t="n">
-        <v>809.7855224609375</v>
+        <v>809.9263916015625</v>
       </c>
       <c r="C12" t="n">
-        <v>1004.509582519531</v>
+        <v>1004.320007324219</v>
       </c>
       <c r="D12" t="n">
-        <v>1199.53173828125</v>
+        <v>1199.434204101562</v>
       </c>
       <c r="E12" t="n">
-        <v>868.0816650390625</v>
+        <v>868.0889282226562</v>
       </c>
       <c r="F12" t="n">
-        <v>1004.658630371094</v>
+        <v>1004.680297851562</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -807,22 +807,22 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1548.182373046875</v>
+        <v>1548.168579101562</v>
       </c>
       <c r="B13" t="n">
-        <v>934.5975952148438</v>
+        <v>937.3400268554688</v>
       </c>
       <c r="C13" t="n">
         <v>1600</v>
       </c>
       <c r="D13" t="n">
-        <v>1121.634155273438</v>
+        <v>1121.639038085938</v>
       </c>
       <c r="E13" t="n">
-        <v>1574.091186523438</v>
+        <v>1574.084228515625</v>
       </c>
       <c r="F13" t="n">
-        <v>1028.115844726562</v>
+        <v>1029.489501953125</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
